--- a/medicine/Enfance/Albert_Chazelle/Albert_Chazelle.xlsx
+++ b/medicine/Enfance/Albert_Chazelle/Albert_Chazelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Chazelle, né le 1er janvier 1892 à Bordeaux et mort le 24 juin 1980 à Grasse, est un dessinateur français de revues et de publicités, ainsi qu'un illustrateur de romans pour la jeunesse ayant travaillé pour les éditions Hachette de 1950 à 1974.
 Il est surtout connu pour avoir illustré deux séries littéraires à succès pour la jeunesse publiées dans la collection Bibliothèque verte : Alice, de Caroline Quine (dont il a été le dessinateur exclusif de 1955 à 1974) et Les Six Compagnons, de Paul-Jacques Bonzon (dont il a été le premier illustrateur, de 1961 à 1970).
@@ -514,19 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie personnelle
-Fils de Jean Antoine Chazelle, employé de commerce, et de Marguerite Marie Thérèse Dutrouilh, son épouse, Dominique Albert Chazelle naît à Bordeaux en 1892[1]. Il a un frère, Marcel, et une sœur, Yvonne[2].
-Installé 12, rue des Ursulines à Paris, il se marie une première fois en 1916[3]. Dans les années 1920 et 1930, il est établi au 3 rue Duguay-Trouin[4],[5].
-Il se remarie en 1965, un an après la mort de sa première femme[6]. À nouveau veuf en 1979[7], Albert Chazelle meurt en 1980 à Grasse[1].
-Carrière
-Revues et publicités
-Avant de se consacrer exclusivement à l'illustration de romans pour la jeunesse en 1950, Albert Chazelle a commencé comme illustrateur à Bordeaux vers 1907, pour le journal Le Tout-Élégant du Sud-Ouest dont son père est le directeur[8],[2]. En 1914, il illustre le fascicule 14 de La Guerre illustrée[9]. Dans les années 1920, il devient dessinateur d'affiches et de cartes postales, notamment pour le Moulin Rouge[10],[11].
-Il se tourne ensuite vers les revues. Il illustre le magazine culturel La Vie parisienne[12] et collabore aux journaux humoristiques pour hommes Le Sourire ou Paris-Flirt en mettant en scène des femmes à moitié nues[13].
-Dans les années 1940 et 1950, Albert Chazelle illustre des romans policiers et des romans d'aventures, mais c'est surtout dans le domaine de la mode qu'il travaille : il illustre intégralement de nombreux numéros de la revue à succès Le Petit Écho de la mode, de Mon ouvrage, La Petite Couturière et Je m'habille. Ses dessins paraissent également dans le magazine Elle et le catalogue 3 Suisses[14].
-Il crée également des campagnes publicitaires pour la marque de lingerie Valisère[15],[16], des publicités pour les magasins Belle Jardinière[17] et pour les chocolats François Marquis[18],[19].
-Peinture
-Albert Chazelle a également eu une activité de peintre (huile sur toile) pendant une partie de sa carrière. Ainsi, en 1929, il participe au Salon des humoristes avec ses toiles Le Repos des modèles, Soir d'été et Le Printemps[20].
-Le nombre exact et le titre des toiles qu'il a peintes ne sont pas connus.
+          <t>Vie personnelle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Jean Antoine Chazelle, employé de commerce, et de Marguerite Marie Thérèse Dutrouilh, son épouse, Dominique Albert Chazelle naît à Bordeaux en 1892. Il a un frère, Marcel, et une sœur, Yvonne.
+Installé 12, rue des Ursulines à Paris, il se marie une première fois en 1916. Dans les années 1920 et 1930, il est établi au 3 rue Duguay-Trouin,.
+Il se remarie en 1965, un an après la mort de sa première femme. À nouveau veuf en 1979, Albert Chazelle meurt en 1980 à Grasse.
 </t>
         </is>
       </c>
@@ -552,19 +560,145 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Revues et publicités</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant de se consacrer exclusivement à l'illustration de romans pour la jeunesse en 1950, Albert Chazelle a commencé comme illustrateur à Bordeaux vers 1907, pour le journal Le Tout-Élégant du Sud-Ouest dont son père est le directeur,. En 1914, il illustre le fascicule 14 de La Guerre illustrée. Dans les années 1920, il devient dessinateur d'affiches et de cartes postales, notamment pour le Moulin Rouge,.
+Il se tourne ensuite vers les revues. Il illustre le magazine culturel La Vie parisienne et collabore aux journaux humoristiques pour hommes Le Sourire ou Paris-Flirt en mettant en scène des femmes à moitié nues.
+Dans les années 1940 et 1950, Albert Chazelle illustre des romans policiers et des romans d'aventures, mais c'est surtout dans le domaine de la mode qu'il travaille : il illustre intégralement de nombreux numéros de la revue à succès Le Petit Écho de la mode, de Mon ouvrage, La Petite Couturière et Je m'habille. Ses dessins paraissent également dans le magazine Elle et le catalogue 3 Suisses.
+Il crée également des campagnes publicitaires pour la marque de lingerie Valisère des publicités pour les magasins Belle Jardinière et pour les chocolats François Marquis,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Peinture</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Chazelle a également eu une activité de peintre (huile sur toile) pendant une partie de sa carrière. Ainsi, en 1929, il participe au Salon des humoristes avec ses toiles Le Repos des modèles, Soir d'été et Le Printemps.
+Le nombre exact et le titre des toiles qu'il a peintes ne sont pas connus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Illustrations de livres pour la jeunesse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La liste ci-après est exhaustive. Le date indiquée est celle de la première édition française illustrée par Albert Chazelle (il a parfois dessiné deux couvertures différentes pour un même titre).
-Collection « Bibliothèque verte » (Hachette)
-Série Alice
-Série écrite par Caroline Quine. Albert Chazelle a été l'unique dessinateur de cette série, de 1961 - date du premier titre paru en France - jusqu'à 1974.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste ci-après est exhaustive. Le date indiquée est celle de la première édition française illustrée par Albert Chazelle (il a parfois dessiné deux couvertures différentes pour un même titre).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Collection « Bibliothèque verte » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Alice</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série écrite par Caroline Quine. Albert Chazelle a été l'unique dessinateur de cette série, de 1961 - date du premier titre paru en France - jusqu'à 1974.
 1955 : Alice détective (no 133) nouveau dessin de couverture pour l'édition de 1971)
 1955 : Alice au bal masqué (no 19)
 1956 : Alice et le Chandelier (no 20)
-1957 : Alice au camp des biches (no 78)(nouveau dessin de couverture pour la réédition de 1974)[21]
+1957 : Alice au camp des biches (no 78)(nouveau dessin de couverture pour la réédition de 1974)
 1958 : Alice au Canada (no 42) (no 466) (nouveau dessin de couverture pour la réédition de 1975)
 1958 : Alice et le Corsaire (no 100)(nouveau dessin de couverture pour la réédition de 1968)
 1959 : Alice écuyère (no 120)
@@ -599,9 +733,48 @@
 1973 : Alice à Paris
 1974 : Alice et le Robot
 1974 : Alice et les Chats persans
-Série Les Six Compagnons
-Série écrite par Paul-Jacques Bonzon. Albert Chazelle a été l'unique dessinateur de cette série, de 1955 - date du premier titre paru en France - jusqu'à 1974.
-1961 : Les Compagnons de la Croix-Rousse[22] (no 194)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Collection « Bibliothèque verte » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Les Six Compagnons</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série écrite par Paul-Jacques Bonzon. Albert Chazelle a été l'unique dessinateur de cette série, de 1955 - date du premier titre paru en France - jusqu'à 1974.
+1961 : Les Compagnons de la Croix-Rousse (no 194)
 1962 : Les Six Compagnons et la Pile atomique (no 221)
 1963 : Les Six Compagnons au gouffre Marzal (no 240)
 1963 : Les Six Compagnons et l'Homme au gant (no 231)
@@ -619,11 +792,91 @@
 1969 : Les Six Compagnons et les Agents secrets (no 388)
 1970 : Les Six Compagnons et les Pirates du rail (no 435)
 1970 : Les Six Compagnons et la Disparue de Montélimar (no 429)
-Série Ursula
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Collection « Bibliothèque verte » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Ursula</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1967 : Ursula et ses amies, de Marie-Louise Fischer (no 333)
 1969 : Ursula la rebelle, de Marie-Louise Fischer (no 384)
 1970 : Bonne chance, Ursula !, de Marie-Louise Fischer (no 425)
-Romans hors-séries
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Collection « Bibliothèque verte » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Romans hors-séries</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1949 : En famille, de Hector Malot (2 tomes) (nouveau dessin de couverture pour la réédition en un seul tome de 1963)
 1951 : Échec au roi, de Germaine Acremant.
 1951 : Lettres de mon moulin, d'Alphonse Daudet.
@@ -631,7 +884,7 @@
 1952 : La Maison qui chante, de Léonce Bourliaguet.
 1952 : La Maison de l'Indienne, de Nanine Gruner.
 1952 : Maria Chapdelaine, de Louis Hemon (no 56) (nouveau dessin de couverture pour la réédition de 1969)
-1953 : L'Ami Fritz, de Erckmann-Chatrian[23] (no 90)
+1953 : L'Ami Fritz, de Erckmann-Chatrian (no 90)
 1953 : Héritière de Neptune, de Georges G. Toudouze.
 1954 : La Villa des grillons, de Léonce Bourliaguet (no 17)
 1955 : La Rescapée des Kerguélen, de Marie-Antoinette de Miollis.
@@ -648,16 +901,131 @@
 1968 : Les Quatre Filles du docteur March, de Louisa May Alcott.
 1969 : La Petite Fadette, de George Sand (no 13)
 1971 : La Croix de Santa Anna, de Paul-Jacques Bonzon.
-Collection « Bibliothèque Hachette » (Hachette)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Collection « Bibliothèque Hachette » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1956 : La Filleule du docteur March, de Louisa May Alcott (no 4)
 1957 : Le Moulin sur la Floss, de George Eliot (no 7)
 1958 : Bientôt seize ans, de Betty Cavanna.
-Collection « Bibliothèque rose » (Hachette)
-Série Mayotte d'Isabelle G. Schreiber
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Collection « Bibliothèque rose » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Mayotte d'Isabelle G. Schreiber</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1963 : Mayotte et son village.
 1964 : Mayotte journaliste.
 1966 : Mayotte au Canada. (no 232)
-Romans hors-série
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Collection « Bibliothèque rose » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Romans hors-série</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1958 : Sous les lilas, de Louisa May Alcott (no 25)
 1961 : Contes de mon père le jars, de Léonce Bourliaguet.
 1961 : Un cadeau pour Amina, de Lucie Rauzier-Fontayne.
@@ -665,10 +1033,84 @@
 1963 : Les 5000 francs d'Alain Cloche-Dur, de Georges Bayard.
 1963 : Rarâo la petite lionne, de Christine Elier.
 1963 : La Chèvre de monsieur Seguin, d'Alphonse Daudet (nouveau dessin de couverture pour la réédition en 1971)
-Collection « Bibliothèque de la Jeunesse » (Hachette)
-Cette collection bon marché est en tout point identique à la « Bibliothèque verte », hormis les plats qui sont souples (et non plus cartonnés). Les titres parus sont les mêmes que ceux parus dans la « Bibliothèque verte ».
-Collection « Idéal-Bibliothèque » (Hachette)
-Série Alice
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Collection « Bibliothèque de la Jeunesse » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette collection bon marché est en tout point identique à la « Bibliothèque verte », hormis les plats qui sont souples (et non plus cartonnés). Les titres parus sont les mêmes que ceux parus dans la « Bibliothèque verte ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Collection « Idéal-Bibliothèque » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Série Alice</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1964 : Alice et le Dragon de feu (no 264)
 1965 : Alice au bal masqué (no 291)
 1965 : Alice et les Plumes de paon (no 282)(nouveau dessin de couverture pour la réédition de 1968)
@@ -691,23 +1133,183 @@
 1973 : Alice détective (pas de no )
 1973 : Alice et les Contrebandiers (pas de no )
 1974 : Alice et le Mannequin (pas de no )
-Série Catherine de Denis-françois
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Collection « Idéal-Bibliothèque » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Série Catherine de Denis-françois</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1953 : Catherine et les Cinq Frères.
 1955 : Courageuse Catherine.
 1957 : Catherine au chalet des neiges.
 1959 : Catherine et les Chiens perdus.
 1961 : La Croisière de Catherine.
-Série Véronique de Suzanne Pairault
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Collection « Idéal-Bibliothèque » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Série Véronique de Suzanne Pairault</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1955 : Véronique en famille.
 1957 : Le Rallye de Véronique (Prix de la Joie en 1958 décerné par l'Allemagne)
 1961 : Véronique à Paris.
 1967 : Véronique à la barre.
-Série Lassie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Collection « Idéal-Bibliothèque » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Série Lassie</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1953 : Lassie, chien fidèle, d'Eric Knight.
 1954 : Le Fils de Lassie, de Hélène Commin. (no 40)
 1956 : Lassie et Joe, de Suzanne Pairault.
 1958 : Lassie et Priscilla, de Suzanne Pairault. (no 160)
-Romans hors-séries
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Collection « Idéal-Bibliothèque » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Romans hors-séries</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1950 : Les Quatre Filles du docteur March, de Louisa May Alcott.
 1952 : En Famille (2 tomes), de Hector Malot (réédition en 1959: no 32 et no 33)
 1952 : L'Âne Bleu, de Louis Daney.
@@ -722,14 +1324,14 @@
 1955 : Les Orphelins de Simitra, de Paul-Jacques Bonzon.
 1955 : Le Rêve de Caroline, de Lucie Rauzier-Fontayne.
 1955 : Contes du Lundi, d'Alphonse Daudet.
-1956 : La Valise mystérieuse, d'Olivier Beaucaire[24].
+1956 : La Valise mystérieuse, d'Olivier Beaucaire.
 1956 : Laurette et la fille des pharaons, de Diélette. (no 122) (Prix du Salon de l'Enfance)
 1957 : Les Vingt Ans de Rose, de Louisa May Alcott. (no 139)
 1957 : La Petite Fille de la grande étoile, d'Alice D'Andernac. (no 145)
 1958 : Florence mène le jeu, de Diélette. (no 156)
 1958 : Chipie-Boum, d'Anne Beauchamps. (no 149)
 1959 : Un secret dans la nuit polaire, de Paul-Jacques Bonzon. (no 178)
-1960 : La Filleule du docteur March[25], de Louisa May Alcott. (no 188)
+1960 : La Filleule du docteur March, de Louisa May Alcott. (no 188)
 1960 : La Croix de Santa Anna, de Paul-Jacques Bonzon. (no 194)
 1960 : Le Rendez-vous de la saint-Sylvestre, de Yette Jeandet. (no 187)
 1960 : Vellana, Jeune Gauloise, de Suzanne Pairault. (no 196)
@@ -738,8 +1340,43 @@
 1962 : Les Amis de Blanche-Épine, Lucie Rauzier-Fontayne. (no 221)
 1962 : Une chanson dans la neige, de Yette Jeandet. (no 224)
 1963 : Un ami imprévu, de Suzanne Pairault. (no 255)
-Collections « Les Grands Livres Hachette » et « La Galaxie » (Hachette)
-1955 : Sans famille, de Hector Malot - Collection « Les Grands Livres Hachette ». Ouvrage couronné par l'Académie française[26].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Collections « Les Grands Livres Hachette » et « La Galaxie » (Hachette)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1955 : Sans famille, de Hector Malot - Collection « Les Grands Livres Hachette ». Ouvrage couronné par l'Académie française.
 1966 : Sans famille, de Hector Malot - Collection « Les Grands Livres Hachette ». Couvertures d'Albert Chazelle, dessins intérieurs de Marianne Clouzot.
 1966 : Lassie, chien fidèle, d'Eric Knight (deux couvertures différentes existent).
 1967 : Alice détective, Alice au bal masqué, Alice et le Chandelier, de Caroline Quine - Collection « Les Grands Livres Hachette 3 livres en 1 ».
@@ -747,9 +1384,43 @@
 1968 : En famille, de Hector Malot.
 1970 : Les Quatre Filles du docteur March ; Le Docteur March marie ses filles de Louisa May Alcott - Collection « Les Grands Livres Hachette 2 en un ».
 1973 : Sans famille, de Hector Malot.
-1973 : Alice et le Pigeon voyageur, de Caroline Quine - Collection « La Galaxie ».
-BD Hardi les gars ! (Héroïca)
-BD pour adolescents. Chaque numéro contient 23 récits d'aventures en images qui paraissait en publication bimensuelle.
+1973 : Alice et le Pigeon voyageur, de Caroline Quine - Collection « La Galaxie ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BD Hardi les gars ! (Héroïca)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>BD pour adolescents. Chaque numéro contient 23 récits d'aventures en images qui paraissait en publication bimensuelle.
 1945 : Le Démon rouge (Les sélections "Hardi les gars !", n°34)
 1946 : Les sélections "Hardi les gars !" Tome IV
 1947 : Cagliostro contre les sept (Les sélections "Hardi les gars !", n°40)
@@ -757,65 +1428,139 @@
 1947 : Dans la tanière des loups (n°44)
 1947 : Rendez-vous National Bank (n°37)
 1948 : Les Révoltés de la mine (n°57)
-1948 : Le Coffre Aux Pépites
-Autres collections
-1945 : Le Sergent Briselaine et la fille du roi, de H. Panneel. Éditeur : Héroïca, Paris.
+1948 : Le Coffre Aux Pépites</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Illustrations de livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Autres collections</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1945 : Le Sergent Briselaine et la fille du roi, de H. Panneel. Éditeur : Héroïca, Paris.
 1946 : Le Petit Cheval rouge, de Louis Phillion. Éditeur : Héroïca.
 1946 : Le Grenier du beau jeudi. Éditeur : Héroïca, Paris.
 1946 : Le Moulin du gai savoir (Le Chevalier au chêne, récit de Jean d'Orbec). Éditeur : Héroïca.
 1954 : Encyclopédie pour les enfants de France. Texte établi sous la direction de Marcelin Traverse. Illustrations de Marianne Clouzot, Albert Chazelle, Paul Durand, Henri Mercier, Jacques Pecnard, Pierre Probst, Jean Reschofsky, Romain Simon. Éditions Hachette.
-1956 : Le Tour du monde en 120 images : Histoires vécues par Jacqueline "la petite fille" du chocolat Menier, de François-Roger de Chateleux. Édité par la Société Française de Propagande[27].
+1956 : Le Tour du monde en 120 images : Histoires vécues par Jacqueline "la petite fille" du chocolat Menier, de François-Roger de Chateleux. Édité par la Société Française de Propagande.
 La Chèvre de monsieur Seguin, d'Alphonse Daudet (couverture différente de l'édition de la Bibliothèque rose)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Albert_Chazelle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Illustrations de romans pour adultes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Éditions Le Livre de l'avenir
-Collection « Le Livre de l'avenir »
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Éditions Le Livre de l'avenir</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Collection « Le Livre de l'avenir »
 1933 : Nicole s'éveille, de Jean de Létraz et Suzette Desty (no 1)
 1933 : Nicole s'égare, de Jean de Létraz et Suzette Desty (no 2)
 1933 : Nicole s'abrite, de Jean de Létraz et Suzette Desty (no 3)
 1933 : Nicole se marie, de Suzette Desty (no 4)
 1933 : Douze nuits d'amour... ou La Vie d'une femme, de Jean de Létraz (no 5)
-Collection « M.A.P. »[28].
+Collection « M.A.P. ».
 1933 : Le Vol du diamant Travancore, de Renée Dunan (no 6)
 1933 : Le Corps découpé, de Renée Dunan (no 7)
 1933 : Le Chat tigre du service secret, de Renée Dunan (no 8)
 1933 : Le Plan mortel, de Renée Dunan (no 9)
 1933 : La Mort qui rôde, de Renée Dunan (no 10)
-1933 : L'Araignée de jade, de Jules Esquirol[29] (no 11)[30]
+1933 : L'Araignée de jade, de Jules Esquirol (no 11)
 1933 : Le Bouton de corail, de Jules Esquirol (no 12)
 1934 : L’Étui d'or, de Jules Esquirol (no 13)
 1934 : Le Mystère du soleil des tombes, de Renée Dunan (no 14)
 1934 : La Montagne de diamants, de Renée Dunan (no 15)
 1934 : Le Meurtre du milliardaire, de Renée Dunan (no 16)
-Éditions La Caravelle
-Collection « Le Ranch »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Illustrations de romans pour adultes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Éditions La Caravelle</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Collection « Le Ranch »
 1945 : L'Anaconda, de Jean d'Ascain.
 1945 : L'Atoll des pirates, de Jean d'Ascain.
 1945 : Chez les Indiens coupeurs de têtes, de Jean d'Ascain.
@@ -832,8 +1577,43 @@
 1946 : Prisonniers des araignées crabes, de Jean d'Ascain.
 1946 : La Rivière de la mort, de Jean d'Ascain.
 1946 : Les Roches bleues, de Jean d'Ascain.
-Éditions Nouvelles Éditions latines
-Collection du « Capricorne »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Chazelle</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Illustrations de romans pour adultes</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Éditions Nouvelles Éditions latines</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Collection du « Capricorne »
 1935 : Le Crime de M. Blaise, de Jules Esquirol.</t>
         </is>
       </c>
